--- a/topic_split/topic_21.xlsx
+++ b/topic_split/topic_21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>issue</t>
   </si>
@@ -22,34 +22,39 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t xml:space="preserve">DREF - New Import functionality (Excel)
+As discussed this morning in our call, we are bringing back the import functionality for the DREF Application, this time in Excel.
+Actions points from this meeting:
+**DFS**
+- [x] #812
+- [x] #813
+- [x] Start estimating amount of hours to complete this request
+- [ ] Estimate amount of hours spent on the Imminent changes
+- [x] #1288 
+- [x] #1306
+- [x] #1431
+**IFRC**
+- [ ] Complete the draft template started by DFS and work on the rest of the templates following the same structure
+- [ ] Provide an analysis on who is starting DREFs
+@tovari @marcovvu1 @udaynwa @samshara @frozenhelium </t>
   </si>
   <si>
-    <t>[2.54333684e-308 2.10194569e-308 1.40665612e-307 2.07636919e-308
- 4.48961750e-308 4.49650175e-308 6.17304349e-308 6.93973368e-308
- 1.97091326e-307 3.63454878e-308 8.18898260e-308 1.28589852e-307
- 1.29463716e-307 2.67221275e-308 5.64304376e-308 4.01443383e-308
- 3.95387508e-308 4.75596077e-308 5.08912908e-308 4.56216907e-308
- 1.00000000e+000 4.77881642e-308 1.24569479e-307 3.89465263e-308
- 1.15020259e-307]</t>
+    <t>Helm Charts and Docker Image for IFRC GO UI Storybook
+### Feature Description
+Create a Dockerfile and Helm chart to deploy the IFRC GO UI Storybook in K8s</t>
   </si>
   <si>
-    <t>[2.45534224e-308 2.00397905e-308 1.74332357e-307 1.97640465e-308
- 4.62750602e-308 4.35417774e-308 5.56897005e-308 6.38280081e-308
- 2.13977924e-307 3.44631211e-308 7.56329290e-308 1.46535702e-307
- 1.02096115e-307 2.51033551e-308 5.16614473e-308 3.82809484e-308
- 3.78737779e-308 4.37235274e-308 4.79964070e-308 4.26509859e-308
- 1.00000000e+000 4.50369210e-308 1.04069813e-307 3.65078977e-308
- 1.07106537e-307]</t>
-  </si>
-  <si>
-    <t>[2.60308554e-308 2.12167669e-308 1.28426430e-307 2.08828708e-308
- 4.61572837e-308 4.66216985e-308 6.65145659e-308 7.43449765e-308
- 2.36106459e-307 3.76121361e-308 9.17081163e-308 1.36063928e-307
- 1.47278768e-307 2.70766484e-308 5.98445468e-308 4.17836458e-308
- 4.09953727e-308 4.98262345e-308 5.37599365e-308 4.78152044e-308
- 1.00000000e+000 5.02588815e-308 1.32758548e-307 4.03875780e-308
- 1.28043035e-307]</t>
+    <t>GO DREF - Indicator bank connection
+### Feature Description
+We need to connect the indicator bank with the DREF process in GO. So we can move away from having free text fields but we can have more structured data.
+Next steps:
+- [ ] Make sure that the Sectors match with the Planned Operation - Marco, Ana and Dirk
+- [ ] Devs to study the API and come up with questions if any.
+@udaynwa @samshara @tovari 
+### Additional Context
+The link to the API of the indicator bank is the following: 
+[Indicator bank API](http://ifrc-indicatorbank.azurewebsites.net/api/indicator)
+X-API-KEY: 878c8a2d-9cf6-488e-9350-eae19e26152f</t>
   </si>
 </sst>
 </file>
@@ -407,54 +412,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>34</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>42</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>132</v>
       </c>
       <c r="B4">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
